--- a/Documents/PCB1_Parts.xlsx
+++ b/Documents/PCB1_Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\College\UF\Spring2022\SeniorDesign\Theremax\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47860C6-CCE0-4F9E-A329-3ED94E54CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E464F1-9E11-4088-815B-6D72C00AFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="203">
   <si>
     <t>Country of Origin may be different at time of shipment.</t>
   </si>
@@ -560,6 +560,75 @@
   </si>
   <si>
     <t>//media.digikey.com/photos/ECS%20Photos/ECS-200-20-4X.JPG</t>
+  </si>
+  <si>
+    <t>1N4148WTR</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 75V 250MA SOD123</t>
+  </si>
+  <si>
+    <t>717,720</t>
+  </si>
+  <si>
+    <t>1655-1360-1-ND</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>http://www.smc-diodes.com/propdf/1N4148W%20N0571%20REV.E.pdf</t>
+  </si>
+  <si>
+    <t>8541.10.0070</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>http://www.smc-diodes.com/uploadfile/Declaration%20Letter%20for%20EU%20REACH-3.pdf|http://www.smc-diodes.com/uploadfile/ROHS%20Declaration%20Letter-3.pdf</t>
+  </si>
+  <si>
+    <t>//media.digikey.com/Renders/SMC%20Diode%20Solutions/1655;SOD123;;2.jpg</t>
+  </si>
+  <si>
+    <t>CMC-97452-L100</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>MIC COND ANLG UNI -37DB 9.7MM D</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>102-5637-ND</t>
+  </si>
+  <si>
+    <t>3.51000</t>
+  </si>
+  <si>
+    <t>$3.51</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/cmc-97452-l100.pdf</t>
+  </si>
+  <si>
+    <t>8518.10.8030</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/material-compliance/cmc-97452-l100</t>
+  </si>
+  <si>
+    <t>//media.digikey.com/Photos/CUI%20Photos/MFG_CMC-97452-L100.jpg</t>
   </si>
 </sst>
 </file>
@@ -908,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2473,6 +2542,178 @@
       </c>
       <c r="AC20" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>185</v>
+      </c>
+      <c r="R21" t="s">
+        <v>186</v>
+      </c>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>185</v>
+      </c>
+      <c r="R22" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2511,6 +2752,10 @@
     <hyperlink ref="AC19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="R20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="AC20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AC21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="R22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="AC22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
